--- a/uploads/u_reg_detail.xlsx
+++ b/uploads/u_reg_detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUNIDHI HARRISON\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1493BE1A-3D7F-40F6-8B54-0A97D0A2269E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885AB1BC-CC8F-4787-9F0B-D39093122947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>MCA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="110">
   <si>
     <t>II</t>
   </si>
@@ -36,15 +33,6 @@
     <t>III</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>QWE@gmail.com</t>
-  </si>
-  <si>
     <t>asd@gmail.com</t>
   </si>
   <si>
@@ -81,18 +69,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>TCA2005001</t>
-  </si>
-  <si>
-    <t>TCA2005002</t>
-  </si>
-  <si>
-    <t>TCA2005003</t>
-  </si>
-  <si>
     <t>Elena Gilbert</t>
   </si>
   <si>
@@ -100,13 +76,292 @@
   </si>
   <si>
     <t>Samuel Saltzman</t>
+  </si>
+  <si>
+    <t>Alaric Sage</t>
+  </si>
+  <si>
+    <t>Nicholas Todd</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>elena@gmail.com</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Stefan Salvatore</t>
+  </si>
+  <si>
+    <t>Damon Salvatore</t>
+  </si>
+  <si>
+    <t>John Gilbert</t>
+  </si>
+  <si>
+    <t>Jeremy Fell</t>
+  </si>
+  <si>
+    <t>Logan Fell</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Jenna Hopkins</t>
+  </si>
+  <si>
+    <t>Amelia Benett</t>
+  </si>
+  <si>
+    <t>Shalini Harrison</t>
+  </si>
+  <si>
+    <t>Himanshu Sharma</t>
+  </si>
+  <si>
+    <t>Anjali Rastogi</t>
+  </si>
+  <si>
+    <t>Sagar Kumar</t>
+  </si>
+  <si>
+    <t>Sachin Saini</t>
+  </si>
+  <si>
+    <t>Vivek Gupta</t>
+  </si>
+  <si>
+    <t>Abhay Sehgal</t>
+  </si>
+  <si>
+    <t>Pulkit Kumar</t>
+  </si>
+  <si>
+    <t>Karan Gupta</t>
+  </si>
+  <si>
+    <t>Mili Mehra</t>
+  </si>
+  <si>
+    <t>Akansha Tyagi</t>
+  </si>
+  <si>
+    <t>Shivangi Verma</t>
+  </si>
+  <si>
+    <t>Nidhi Sharma</t>
+  </si>
+  <si>
+    <t>Sam Fell</t>
+  </si>
+  <si>
+    <t>Maddy Jose</t>
+  </si>
+  <si>
+    <t>Pihu Chauhan</t>
+  </si>
+  <si>
+    <t>Shubham Gupta</t>
+  </si>
+  <si>
+    <t>Vinay Jain</t>
+  </si>
+  <si>
+    <t>Vipin Kumar</t>
+  </si>
+  <si>
+    <t>Mansh Singh</t>
+  </si>
+  <si>
+    <t>Sagar Lohi</t>
+  </si>
+  <si>
+    <t>Abhishek Chauhan</t>
+  </si>
+  <si>
+    <t>Prashant Gupta</t>
+  </si>
+  <si>
+    <t>Prachi Agarwal</t>
+  </si>
+  <si>
+    <t>Mukesh Rana</t>
+  </si>
+  <si>
+    <t>Vishwas Chaudhary</t>
+  </si>
+  <si>
+    <t>Akshay Singh</t>
+  </si>
+  <si>
+    <t>Salman Qureshi</t>
+  </si>
+  <si>
+    <t>Suhail Khan</t>
+  </si>
+  <si>
+    <t>Naveen Saini</t>
+  </si>
+  <si>
+    <t>Abhishek Mishra</t>
+  </si>
+  <si>
+    <t>Ben Mikaelson</t>
+  </si>
+  <si>
+    <t>Tanmay Singh</t>
+  </si>
+  <si>
+    <t>TCA1706001</t>
+  </si>
+  <si>
+    <t>TCA1706002</t>
+  </si>
+  <si>
+    <t>TCA1706003</t>
+  </si>
+  <si>
+    <t>TCA1706004</t>
+  </si>
+  <si>
+    <t>TCA1706005</t>
+  </si>
+  <si>
+    <t>TCA1706006</t>
+  </si>
+  <si>
+    <t>TCA1706007</t>
+  </si>
+  <si>
+    <t>TCA1706008</t>
+  </si>
+  <si>
+    <t>TCA1706009</t>
+  </si>
+  <si>
+    <t>TCA1706010</t>
+  </si>
+  <si>
+    <t>TCA1706011</t>
+  </si>
+  <si>
+    <t>TCA1706012</t>
+  </si>
+  <si>
+    <t>TCA1706013</t>
+  </si>
+  <si>
+    <t>TCA1706014</t>
+  </si>
+  <si>
+    <t>TCA1706015</t>
+  </si>
+  <si>
+    <t>TCA1706016</t>
+  </si>
+  <si>
+    <t>TCA1706017</t>
+  </si>
+  <si>
+    <t>TCA1706018</t>
+  </si>
+  <si>
+    <t>TCA1706019</t>
+  </si>
+  <si>
+    <t>TCA1706020</t>
+  </si>
+  <si>
+    <t>TCA1706021</t>
+  </si>
+  <si>
+    <t>TCA1706022</t>
+  </si>
+  <si>
+    <t>TCA1706023</t>
+  </si>
+  <si>
+    <t>TCA1706024</t>
+  </si>
+  <si>
+    <t>TCA1706025</t>
+  </si>
+  <si>
+    <t>TCA1706026</t>
+  </si>
+  <si>
+    <t>TCA1706027</t>
+  </si>
+  <si>
+    <t>TCA1706028</t>
+  </si>
+  <si>
+    <t>TCA1706029</t>
+  </si>
+  <si>
+    <t>TCA1706030</t>
+  </si>
+  <si>
+    <t>TCA1706031</t>
+  </si>
+  <si>
+    <t>TCA1706032</t>
+  </si>
+  <si>
+    <t>TCA1706033</t>
+  </si>
+  <si>
+    <t>TCA1706034</t>
+  </si>
+  <si>
+    <t>TCA1706035</t>
+  </si>
+  <si>
+    <t>TCA1706036</t>
+  </si>
+  <si>
+    <t>TCA1706037</t>
+  </si>
+  <si>
+    <t>TCA1706038</t>
+  </si>
+  <si>
+    <t>TCA1706039</t>
+  </si>
+  <si>
+    <t>TCA1706040</t>
+  </si>
+  <si>
+    <t>TCA1706041</t>
+  </si>
+  <si>
+    <t>TCA1706042</t>
+  </si>
+  <si>
+    <t>TCA1706043</t>
+  </si>
+  <si>
+    <t>TCA1706044</t>
+  </si>
+  <si>
+    <t>TCA1706045</t>
+  </si>
+  <si>
+    <t>B.Tech.</t>
+  </si>
+  <si>
+    <t>Computer Science Engineering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +373,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,31 +712,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -483,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>7894561230</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
@@ -514,25 +775,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
       </c>
       <c r="H3">
-        <v>9321456987</v>
+        <v>7894561230</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
@@ -542,37 +806,1261 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>8422534621</v>
+        <v>7894561230</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <v>7894561230</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6">
+        <v>7894561230</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7">
+        <v>7894561230</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8">
+        <v>7894561230</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9">
+        <v>7894561230</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10">
+        <v>7894561230</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11">
+        <v>7894561230</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12">
+        <v>7894561230</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13">
+        <v>7894561230</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14">
+        <v>7894561230</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15">
+        <v>7894561230</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16">
+        <v>7894561230</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17">
+        <v>7894561230</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18">
+        <v>7894561230</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19">
+        <v>7894561230</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20">
+        <v>7894561230</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21">
+        <v>7894561230</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22">
+        <v>7894561230</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23">
+        <v>7894561230</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24">
+        <v>7894561230</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25">
+        <v>7894561230</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26">
+        <v>7894561230</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27">
+        <v>7894561230</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28">
+        <v>7894561230</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29">
+        <v>7894561230</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30">
+        <v>7894561230</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31">
+        <v>7894561230</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32">
+        <v>7894561230</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33">
+        <v>7894561230</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34">
+        <v>7894561230</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35">
+        <v>7894561230</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36">
+        <v>7894561230</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37">
+        <v>7894561230</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38">
+        <v>7894561230</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39">
+        <v>7894561230</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40">
+        <v>7894561230</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41">
+        <v>7894561230</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42">
+        <v>7894561230</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43">
+        <v>7894561230</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44">
+        <v>7894561230</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45">
+        <v>7894561230</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46">
+        <v>7894561230</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{1A034C1F-59FB-4536-AFD4-BC732A51DDCC}"/>
+    <hyperlink ref="I7:I11" r:id="rId5" display="elena@gmail.com" xr:uid="{00FB00D2-C2CF-4944-897C-4818E3516402}"/>
+    <hyperlink ref="I12:I16" r:id="rId6" display="elena@gmail.com" xr:uid="{A3E03B0B-9C0B-4D7B-951A-A26A8AE3AF25}"/>
+    <hyperlink ref="I17:I31" r:id="rId7" display="elena@gmail.com" xr:uid="{00BAEB4E-9ED1-46B7-8FC1-0E7394A19D88}"/>
+    <hyperlink ref="I32:I46" r:id="rId8" display="elena@gmail.com" xr:uid="{DD933E92-4170-4333-90FA-271E6C52227E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
